--- a/football_standings/soccer_23_08_FR.xlsx
+++ b/football_standings/soccer_23_08_FR.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,17 +558,17 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4.22</t>
         </is>
       </c>
     </row>
@@ -984,17 +984,17 @@
       </c>
       <c r="AB4" s="1" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AC4" s="1" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="AD4" s="1" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.79</t>
         </is>
       </c>
     </row>
@@ -1268,17 +1268,17 @@
       </c>
       <c r="AB6" s="1" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AC6" s="1" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="AB7" s="1" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AC7" s="1" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="AD7" s="1" t="inlineStr">
@@ -1427,22 +1427,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRAZIL: Serie B</t>
+          <t>BHUTAN: Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Samtse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Paro</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="G8" s="1" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="O8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="S8" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T8" s="1" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
@@ -1533,11 +1533,11 @@
         </is>
       </c>
       <c r="X8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -1552,39 +1552,39 @@
       </c>
       <c r="AB8" s="1" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC8" s="1" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BULGARIA: Parva liga</t>
+          <t>BRAZIL: Serie B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="G9" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
@@ -1607,29 +1607,29 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1649,11 +1649,11 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T9" s="1" t="inlineStr">
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="U9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
@@ -1675,11 +1675,11 @@
         </is>
       </c>
       <c r="X9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1694,17 +1694,17 @@
       </c>
       <c r="AB9" s="1" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AC9" s="1" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T10" s="1" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W10" s="1" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
@@ -1836,39 +1836,39 @@
       </c>
       <c r="AB10" s="1" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="AC10" s="1" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>29.74</t>
+          <t>3.43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHILE: Primera Division</t>
+          <t>BULGARIA: Parva liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="G11" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
@@ -1920,11 +1920,11 @@
         </is>
       </c>
       <c r="O11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1933,11 +1933,11 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T11" s="1" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
@@ -1959,11 +1959,11 @@
         </is>
       </c>
       <c r="X11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
@@ -1978,39 +1978,39 @@
       </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AC11" s="1" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AD11" s="1" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>25.03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COLOMBIA: Primera B - Clausura</t>
+          <t>CHILE: Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G12" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
@@ -2033,40 +2033,40 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M12" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="O12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T12" s="1" t="inlineStr">
@@ -2088,11 +2088,11 @@
         </is>
       </c>
       <c r="U12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="AC12" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="G13" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
@@ -2204,11 +2204,11 @@
         </is>
       </c>
       <c r="O13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
@@ -2243,11 +2243,11 @@
         </is>
       </c>
       <c r="X13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G14" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
@@ -2346,11 +2346,11 @@
         </is>
       </c>
       <c r="O14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2359,11 +2359,11 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T14" s="1" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z14" s="1" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
@@ -2488,11 +2488,11 @@
         </is>
       </c>
       <c r="O15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T15" s="1" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
@@ -2527,11 +2527,11 @@
         </is>
       </c>
       <c r="X15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
@@ -2568,12 +2568,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2616,25 +2616,25 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1" t="inlineStr">
         <is>
@@ -2710,12 +2710,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="O17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
@@ -2785,11 +2785,11 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T17" s="1" t="inlineStr">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
@@ -2810,14 +2810,12 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X17" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
+      <c r="X17" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
@@ -2854,12 +2852,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2878,7 +2876,7 @@
         </is>
       </c>
       <c r="G18" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
@@ -2887,7 +2885,7 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
@@ -2902,12 +2900,12 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
@@ -2916,11 +2914,11 @@
         </is>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2929,7 +2927,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="inlineStr">
         <is>
@@ -2946,7 +2944,7 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
@@ -2954,12 +2952,14 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X18" s="1" t="n">
-        <v>2</v>
+      <c r="X18" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>	</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -2991,22 +2991,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC: ChNL</t>
+          <t>COLOMBIA: Primera B - Clausura</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
@@ -3062,33 +3062,33 @@
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q19" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="U19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z19" s="1" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="AB19" s="1" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC19" s="1" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD19" s="1" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>	</t>
         </is>
       </c>
     </row>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Zlin</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
@@ -3200,11 +3200,11 @@
         </is>
       </c>
       <c r="O20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -3213,11 +3213,11 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T20" s="1" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
@@ -3258,39 +3258,39 @@
       </c>
       <c r="AB20" s="1" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="AC20" s="1" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>4.09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DENMARK: Superliga</t>
+          <t>CZECH REPUBLIC: ChNL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Zlin</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="G21" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="M21" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N21" s="1" t="inlineStr">
@@ -3355,37 +3355,37 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T21" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T21" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3400,34 +3400,34 @@
       </c>
       <c r="AB21" s="1" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="AC21" s="1" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.93</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DENMARK: 1st Division</t>
+          <t>DENMARK: Superliga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="G22" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3497,39 +3497,39 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T22" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W22" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T22" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W22" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Z22" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -3542,39 +3542,39 @@
       </c>
       <c r="AB22" s="1" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="AC22" s="1" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECUADOR: Serie B</t>
+          <t>DENMARK: 1st Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nueve de Octubre</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="G23" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
@@ -3597,24 +3597,24 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L23" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
           <t>W</t>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3639,11 +3639,11 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T23" s="1" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="AB23" s="1" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AC23" s="1" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>Nueve de Octubre</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3754,12 +3754,12 @@
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M24" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N24" s="1" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
@@ -3781,26 +3781,26 @@
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="T24" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="T24" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V24" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
@@ -3826,39 +3826,39 @@
       </c>
       <c r="AB24" s="1" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="AC24" s="1" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AD24" s="1" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ESTONIA: Meistriliiga</t>
+          <t>ECUADOR: Serie B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Ind. Juniors</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="G25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
@@ -3896,12 +3896,12 @@
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N25" s="1" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
@@ -3923,11 +3923,11 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T25" s="1" t="inlineStr">
@@ -3936,11 +3936,11 @@
         </is>
       </c>
       <c r="U25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
@@ -3968,39 +3968,39 @@
       </c>
       <c r="AB25" s="1" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FAROE ISLANDS: Premier League</t>
+          <t>ESTONIA: Meistriliiga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Skala Itrottarfelag</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IF Fuglafjordur</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G26" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
@@ -4038,12 +4038,12 @@
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
@@ -4052,52 +4052,52 @@
         </is>
       </c>
       <c r="O26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q26" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" s="1" t="inlineStr">
+      <c r="T26" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W26" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="T26" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W26" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Z26" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -4110,39 +4110,39 @@
       </c>
       <c r="AB26" s="1" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="AC26" s="1" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="AD26" s="1" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.48</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
+          <t>FAROE ISLANDS: Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bolnisi</t>
+          <t>Skala Itrottarfelag</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rustavi</t>
+          <t>IF Fuglafjordur</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="G27" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
@@ -4165,12 +4165,12 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
@@ -4180,12 +4180,12 @@
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N27" s="1" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="S27" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T27" s="1" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
@@ -4233,11 +4233,11 @@
         </is>
       </c>
       <c r="X27" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">
@@ -4252,39 +4252,39 @@
       </c>
       <c r="AB27" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AC27" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="AD27" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4.78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
+          <t>FINLAND: Ykkonen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WIT Georgia</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FC Gareji Sagarejo</t>
+          <t>Keski-Uusimaa</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
@@ -4307,36 +4307,36 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="N28" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="O28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
@@ -4349,11 +4349,11 @@
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T28" s="1" t="inlineStr">
@@ -4362,11 +4362,11 @@
         </is>
       </c>
       <c r="U28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
@@ -4375,11 +4375,11 @@
         </is>
       </c>
       <c r="X28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
@@ -4394,34 +4394,34 @@
       </c>
       <c r="AB28" s="1" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="AC28" s="1" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="AD28" s="1" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
+          <t>FINLAND: Kakkonen Group A - Losers stage</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi 2</t>
+          <t>Futura</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Loco. Tbilisi</t>
+          <t>PPJ</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="G29" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q29" s="1" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="S29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T29" s="1" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
@@ -4517,11 +4517,11 @@
         </is>
       </c>
       <c r="X29" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z29" s="1" t="inlineStr">
@@ -4536,39 +4536,39 @@
       </c>
       <c r="AB29" s="1" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC29" s="1" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD29" s="1" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
+          <t>FINLAND: Kakkonen Group B - Winners stage</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shturmi</t>
+          <t>Inter Turku 2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Khobi</t>
+          <t>TPV</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M30" s="1" t="inlineStr">
@@ -4624,48 +4624,48 @@
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="Q30" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T30" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="W30" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q30" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="T30" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W30" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Z30" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -4678,34 +4678,34 @@
       </c>
       <c r="AB30" s="1" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AC30" s="1" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="AD30" s="1" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>12.06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
+          <t>FINLAND: Kakkonen Group B - Winners stage</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Spaeri</t>
+          <t>Tampere Utd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dusheti</t>
+          <t>VJS</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M31" s="1" t="inlineStr">
@@ -4775,11 +4775,11 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="T31" s="1" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="V31" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="W31" s="1" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Z31" s="1" t="inlineStr">
@@ -4820,39 +4820,39 @@
       </c>
       <c r="AB31" s="1" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="AC31" s="1" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="AD31" s="1" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GERMANY: Regionalliga Bayern</t>
+          <t>FINLAND: Kakkonen Group C - Losers stage</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aubstadt</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Burghausen</t>
+          <t>OPS</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G32" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
@@ -4875,12 +4875,12 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4908,48 +4908,48 @@
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="Q32" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T32" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W32" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q32" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T32" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W32" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Z32" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -4962,39 +4962,39 @@
       </c>
       <c r="AB32" s="1" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AC32" s="1" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="AD32" s="1" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GERMANY: Regionalliga Bayern</t>
+          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aschaffenburg</t>
+          <t>Bolnisi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bayreuth</t>
+          <t>Rustavi</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="G33" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M33" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N33" s="1" t="inlineStr">
@@ -5046,11 +5046,11 @@
         </is>
       </c>
       <c r="O33" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="S33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="T33" s="1" t="inlineStr">
@@ -5072,11 +5072,11 @@
         </is>
       </c>
       <c r="U33" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="W33" s="1" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z33" s="1" t="inlineStr">
@@ -5104,39 +5104,39 @@
       </c>
       <c r="AB33" s="1" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC33" s="1" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD33" s="1" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GERMANY: Regionalliga Bayern</t>
+          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Augsburg II</t>
+          <t>WIT Georgia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ansbach</t>
+          <t>FC Gareji Sagarejo</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="G34" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
@@ -5159,12 +5159,12 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M34" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N34" s="1" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="S34" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T34" s="1" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
@@ -5227,11 +5227,11 @@
         </is>
       </c>
       <c r="X34" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z34" s="1" t="inlineStr">
@@ -5246,39 +5246,39 @@
       </c>
       <c r="AB34" s="1" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="AC34" s="1" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="AD34" s="1" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.26</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GERMANY: Regionalliga Bayern</t>
+          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Buchbach</t>
+          <t>Dinamo Tbilisi 2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Turkgucu Munchen</t>
+          <t>Loco. Tbilisi</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="G35" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="M35" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N35" s="1" t="inlineStr">
@@ -5334,50 +5334,48 @@
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T35" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W35" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T35" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W35" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X35" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
       <c r="Z35" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -5390,39 +5388,39 @@
       </c>
       <c r="AB35" s="1" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AC35" s="1" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="AD35" s="1" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Nord</t>
+          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Neumarkt</t>
+          <t>Shturmi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eichstatt</t>
+          <t>Khobi</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -5436,7 +5434,7 @@
         </is>
       </c>
       <c r="G36" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
@@ -5460,12 +5458,12 @@
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M36" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N36" s="1" t="inlineStr">
@@ -5474,11 +5472,11 @@
         </is>
       </c>
       <c r="O36" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
@@ -5487,37 +5485,37 @@
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T36" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T36" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V36" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="X36" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
@@ -5532,39 +5530,39 @@
       </c>
       <c r="AB36" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="AC36" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="AD36" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Nord</t>
+          <t>GEORGIA: Crystalbet Erovnuli Liga 2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATSV</t>
+          <t>Spaeri</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Neudrossenfeld</t>
+          <t>Dusheti</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -5578,7 +5576,7 @@
         </is>
       </c>
       <c r="G37" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
@@ -5587,12 +5585,12 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
@@ -5602,7 +5600,7 @@
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
@@ -5616,11 +5614,11 @@
         </is>
       </c>
       <c r="O37" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
@@ -5633,7 +5631,7 @@
       </c>
       <c r="S37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T37" s="1" t="inlineStr">
@@ -5642,11 +5640,11 @@
         </is>
       </c>
       <c r="U37" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
@@ -5655,11 +5653,11 @@
         </is>
       </c>
       <c r="X37" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z37" s="1" t="inlineStr">
@@ -5674,39 +5672,39 @@
       </c>
       <c r="AB37" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AC37" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="AD37" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Nord</t>
+          <t>GERMANY: Regionalliga Bayern</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kornburg</t>
+          <t>Aubstadt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Weiden</t>
+          <t>Burghausen</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -5720,7 +5718,7 @@
         </is>
       </c>
       <c r="G38" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
@@ -5729,7 +5727,7 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
@@ -5749,7 +5747,7 @@
       </c>
       <c r="M38" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N38" s="1" t="inlineStr">
@@ -5762,7 +5760,7 @@
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr">
@@ -5771,11 +5769,11 @@
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T38" s="1" t="inlineStr">
@@ -5788,7 +5786,7 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
@@ -5816,39 +5814,39 @@
       </c>
       <c r="AB38" s="1" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="AC38" s="1" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AD38" s="1" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Süd</t>
+          <t>GERMANY: Regionalliga Bayern</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Schalding</t>
+          <t>Aschaffenburg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Grunwald</t>
+          <t>Bayreuth</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
@@ -5876,7 +5874,7 @@
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
@@ -5886,7 +5884,7 @@
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
@@ -5900,7 +5898,7 @@
         </is>
       </c>
       <c r="O39" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
@@ -5926,11 +5924,11 @@
         </is>
       </c>
       <c r="U39" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
@@ -5943,7 +5941,7 @@
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">
@@ -5958,39 +5956,39 @@
       </c>
       <c r="AB39" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AC39" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AD39" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.98</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Süd</t>
+          <t>GERMANY: Regionalliga Bayern</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nordlingen</t>
+          <t>Augsburg II</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Heimstetten</t>
+          <t>Ansbach</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -6004,7 +6002,7 @@
         </is>
       </c>
       <c r="G40" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
@@ -6018,7 +6016,7 @@
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
@@ -6028,7 +6026,7 @@
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr">
@@ -6042,11 +6040,11 @@
         </is>
       </c>
       <c r="O40" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q40" s="1" t="inlineStr">
@@ -6055,7 +6053,7 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40" s="1" t="inlineStr">
         <is>
@@ -6072,7 +6070,7 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
@@ -6081,7 +6079,7 @@
         </is>
       </c>
       <c r="X40" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
@@ -6100,34 +6098,34 @@
       </c>
       <c r="AB40" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AC40" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="AD40" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Süd</t>
+          <t>GERMANY: Regionalliga Bayern</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Memmingen</t>
+          <t>Buchbach</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Erlbach</t>
+          <t>Turkgucu Munchen</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -6146,7 +6144,7 @@
         </is>
       </c>
       <c r="G41" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
@@ -6155,27 +6153,27 @@
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L41" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="M41" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N41" s="1" t="inlineStr">
@@ -6184,11 +6182,11 @@
         </is>
       </c>
       <c r="O41" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q41" s="1" t="inlineStr">
@@ -6197,11 +6195,11 @@
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T41" s="1" t="inlineStr">
@@ -6210,7 +6208,7 @@
         </is>
       </c>
       <c r="U41" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
@@ -6222,12 +6220,14 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X41" s="1" t="n">
-        <v>1</v>
+      <c r="X41" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>	</t>
         </is>
       </c>
       <c r="Z41" s="1" t="inlineStr">
@@ -6242,39 +6242,39 @@
       </c>
       <c r="AB41" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AC41" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AD41" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GERMANY: Oberliga Bayern Süd</t>
+          <t>GERMANY: Oberliga Bayern Nord</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Unterhaching II</t>
+          <t>Neumarkt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Kirchanschoring</t>
+          <t>Eichstatt</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="G42" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="M42" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N42" s="1" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="P42" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q42" s="1" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="S42" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T42" s="1" t="inlineStr">
@@ -6352,11 +6352,11 @@
         </is>
       </c>
       <c r="U42" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
@@ -6365,11 +6365,11 @@
         </is>
       </c>
       <c r="X42" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z42" s="1" t="inlineStr">
@@ -6401,22 +6401,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IRELAND: Premier Division</t>
+          <t>GERMANY: Oberliga Bayern Nord</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>ATSV</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Neudrossenfeld</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G43" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
@@ -6439,12 +6439,12 @@
       </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
@@ -6454,12 +6454,12 @@
       </c>
       <c r="L43" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M43" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N43" s="1" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="P43" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q43" s="1" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="S43" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T43" s="1" t="inlineStr">
@@ -6494,11 +6494,11 @@
         </is>
       </c>
       <c r="U43" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z43" s="1" t="inlineStr">
@@ -6526,39 +6526,39 @@
       </c>
       <c r="AB43" s="1" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC43" s="1" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD43" s="1" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IRELAND: Premier Division</t>
+          <t>GERMANY: Oberliga Bayern Nord</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Kornburg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Weiden</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="G44" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
@@ -6581,12 +6581,12 @@
       </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="L44" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M44" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N44" s="1" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="P44" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q44" s="1" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="S44" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T44" s="1" t="inlineStr">
@@ -6636,11 +6636,11 @@
         </is>
       </c>
       <c r="U44" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -6668,39 +6668,39 @@
       </c>
       <c r="AB44" s="1" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="AC44" s="1" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="AD44" s="1" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IRELAND: Division 1</t>
+          <t>GERMANY: Oberliga Bayern Süd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Schalding</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Grunwald</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="G45" s="1" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
@@ -6738,12 +6738,12 @@
       </c>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N45" s="1" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="P45" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q45" s="1" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="S45" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T45" s="1" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="Y45" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z45" s="1" t="inlineStr">
@@ -6810,39 +6810,39 @@
       </c>
       <c r="AB45" s="1" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC45" s="1" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD45" s="1" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IRELAND: Division 1</t>
+          <t>GERMANY: Oberliga Bayern Süd</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Nordlingen</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Heimstetten</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="G46" s="1" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr">
@@ -6880,12 +6880,12 @@
       </c>
       <c r="L46" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M46" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N46" s="1" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="P46" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q46" s="1" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="S46" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T46" s="1" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -6952,39 +6952,39 @@
       </c>
       <c r="AB46" s="1" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC46" s="1" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD46" s="1" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IRELAND: Division 1</t>
+          <t>GERMANY: Oberliga Bayern Süd</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Memmingen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wexford</t>
+          <t>Erlbach</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
@@ -6998,7 +6998,7 @@
         </is>
       </c>
       <c r="G47" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J47" s="1" t="inlineStr">
@@ -7036,11 +7036,11 @@
         </is>
       </c>
       <c r="O47" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q47" s="1" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="S47" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T47" s="1" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
@@ -7075,11 +7075,11 @@
         </is>
       </c>
       <c r="X47" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y47" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z47" s="1" t="inlineStr">
@@ -7094,39 +7094,39 @@
       </c>
       <c r="AB47" s="1" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC47" s="1" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD47" s="1" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IRELAND: Division 1</t>
+          <t>GERMANY: Oberliga Bayern Süd</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UC Dublin</t>
+          <t>Unterhaching II</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Kirchanschoring</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="G48" s="1" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J48" s="1" t="inlineStr">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="L48" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M48" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N48" s="1" t="inlineStr">
@@ -7178,11 +7178,11 @@
         </is>
       </c>
       <c r="O48" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q48" s="1" t="inlineStr">
@@ -7191,11 +7191,11 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T48" s="1" t="inlineStr">
@@ -7204,11 +7204,11 @@
         </is>
       </c>
       <c r="U48" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W48" s="1" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="Y48" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z48" s="1" t="inlineStr">
@@ -7236,39 +7236,39 @@
       </c>
       <c r="AB48" s="1" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC48" s="1" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD48" s="1" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LATVIA: Virsliga</t>
+          <t>IRELAND: Premier Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="G49" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
@@ -7291,12 +7291,12 @@
       </c>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J49" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K49" s="1" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="L49" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M49" s="1" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="P49" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q49" s="1" t="inlineStr">
@@ -7333,11 +7333,11 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="T49" s="1" t="inlineStr">
@@ -7346,11 +7346,11 @@
         </is>
       </c>
       <c r="U49" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W49" s="1" t="inlineStr">
@@ -7359,11 +7359,11 @@
         </is>
       </c>
       <c r="X49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y49" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z49" s="1" t="inlineStr">
@@ -7378,39 +7378,39 @@
       </c>
       <c r="AB49" s="1" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="AC49" s="1" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AD49" s="1" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.87</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LATVIA: 1. Liga</t>
+          <t>IRELAND: Premier Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Valmiera 2</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rezekne</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="G50" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="J50" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K50" s="1" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="M50" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N50" s="1" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="S50" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T50" s="1" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="V50" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W50" s="1" t="inlineStr">
@@ -7501,11 +7501,11 @@
         </is>
       </c>
       <c r="X50" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z50" s="1" t="inlineStr">
@@ -7520,39 +7520,39 @@
       </c>
       <c r="AB50" s="1" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="AC50" s="1" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="AD50" s="1" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LATVIA: 1. Liga</t>
+          <t>IRELAND: Premier Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Leevon PPK</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ogre United</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
@@ -7566,7 +7566,7 @@
         </is>
       </c>
       <c r="G51" s="1" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
@@ -7575,27 +7575,27 @@
       </c>
       <c r="I51" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L51" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L51" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="M51" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N51" s="1" t="inlineStr">
@@ -7604,52 +7604,52 @@
         </is>
       </c>
       <c r="O51" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" s="1" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="T51" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" s="1" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Q51" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" s="1" t="inlineStr">
+      <c r="W51" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="T51" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V51" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="W51" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y51" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Z51" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -7662,39 +7662,39 @@
       </c>
       <c r="AB51" s="1" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="AC51" s="1" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="AD51" s="1" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LITHUANIA: A Lyga</t>
+          <t>IRELAND: Division 1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dziugas Telsiai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Transinvest</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
@@ -7708,7 +7708,7 @@
         </is>
       </c>
       <c r="G52" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="M52" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N52" s="1" t="inlineStr">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="O52" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" s="1" t="inlineStr">
         <is>
@@ -7759,11 +7759,11 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T52" s="1" t="inlineStr">
@@ -7772,26 +7772,26 @@
         </is>
       </c>
       <c r="U52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" s="1" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="W52" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W52" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X52" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="Z52" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -7804,39 +7804,39 @@
       </c>
       <c r="AB52" s="1" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AC52" s="1" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AD52" s="1" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.11</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LITHUANIA: I Lyga</t>
+          <t>IRELAND: Division 1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Babrungas</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BFA Vilnius</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="G53" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="P53" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q53" s="1" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="S53" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T53" s="1" t="inlineStr">
@@ -7914,11 +7914,11 @@
         </is>
       </c>
       <c r="U53" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V53" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="W53" s="1" t="inlineStr">
@@ -7927,11 +7927,11 @@
         </is>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z53" s="1" t="inlineStr">
@@ -7946,39 +7946,39 @@
       </c>
       <c r="AB53" s="1" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AC53" s="1" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="AD53" s="1" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LITHUANIA: I Lyga</t>
+          <t>IRELAND: Division 1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BE1 NFA</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FK Panevezys 2</t>
+          <t>Wexford</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="G54" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H54" s="1" t="inlineStr">
         <is>
@@ -8001,12 +8001,12 @@
       </c>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J54" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K54" s="1" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="L54" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M54" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N54" s="1" t="inlineStr">
@@ -8030,11 +8030,11 @@
         </is>
       </c>
       <c r="O54" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q54" s="1" t="inlineStr">
@@ -8043,11 +8043,11 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S54" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T54" s="1" t="inlineStr">
@@ -8056,11 +8056,11 @@
         </is>
       </c>
       <c r="U54" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V54" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W54" s="1" t="inlineStr">
@@ -8069,11 +8069,11 @@
         </is>
       </c>
       <c r="X54" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y54" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z54" s="1" t="inlineStr">
@@ -8088,39 +8088,39 @@
       </c>
       <c r="AB54" s="1" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="AC54" s="1" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="AD54" s="1" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LITHUANIA: I Lyga</t>
+          <t>IRELAND: Division 1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nevezis Kedainiai</t>
+          <t>UC Dublin</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kauno Zalgiris 2</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="G55" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
@@ -8143,14 +8143,14 @@
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="K55" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="L55" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M55" s="1" t="inlineStr">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="O55" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" s="1" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="S55" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T55" s="1" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="V55" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W55" s="1" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="Y55" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z55" s="1" t="inlineStr">
@@ -8230,39 +8230,39 @@
       </c>
       <c r="AB55" s="1" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="AC55" s="1" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="AD55" s="1" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LITHUANIA: I Lyga</t>
+          <t>LATVIA: Virsliga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Neptunas</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Siauliai 2</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="G56" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H56" s="1" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J56" s="1" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="M56" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N56" s="1" t="inlineStr">
@@ -8314,11 +8314,11 @@
         </is>
       </c>
       <c r="O56" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Q56" s="1" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="S56" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T56" s="1" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="V56" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W56" s="1" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="Y56" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z56" s="1" t="inlineStr">
@@ -8372,39 +8372,39 @@
       </c>
       <c r="AB56" s="1" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="AC56" s="1" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="AD56" s="1" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MYANMAR: National League</t>
+          <t>LATVIA: 1. Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Thitsar Arman</t>
+          <t>Valmiera 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dagon Port</t>
+          <t>Rezekne</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="G57" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H57" s="1" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="J57" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K57" s="1" t="inlineStr">
@@ -8442,12 +8442,12 @@
       </c>
       <c r="L57" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M57" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N57" s="1" t="inlineStr">
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="O57" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" s="1" t="inlineStr">
         <is>
@@ -8469,11 +8469,11 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S57" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T57" s="1" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="V57" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W57" s="1" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="Y57" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z57" s="1" t="inlineStr">
@@ -8514,39 +8514,39 @@
       </c>
       <c r="AB57" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="AC57" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="AD57" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>5.45</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MYANMAR: National League</t>
+          <t>LATVIA: 1. Liga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Myawady</t>
+          <t>Leevon PPK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mahar United</t>
+          <t>Ogre United</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="G58" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H58" s="1" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J58" s="1" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="L58" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M58" s="1" t="inlineStr">
@@ -8598,37 +8598,37 @@
         </is>
       </c>
       <c r="O58" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" s="1" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q58" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q58" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R58" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S58" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="T58" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="U58" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V58" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W58" s="1" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="Y58" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z58" s="1" t="inlineStr">
@@ -8656,39 +8656,39 @@
       </c>
       <c r="AB58" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="AC58" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AD58" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NORWAY: Division 3 - Group 5</t>
+          <t>LITHUANIA: A Lyga</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bjorkelangen</t>
+          <t>Dziugas Telsiai</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gjellerasen</t>
+          <t>Transinvest</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="G59" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H59" s="1" t="inlineStr">
         <is>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J59" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -8740,11 +8740,11 @@
         </is>
       </c>
       <c r="O59" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Q59" s="1" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="S59" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="T59" s="1" t="inlineStr">
@@ -8766,11 +8766,11 @@
         </is>
       </c>
       <c r="U59" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V59" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W59" s="1" t="inlineStr">
@@ -8798,39 +8798,39 @@
       </c>
       <c r="AB59" s="1" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AC59" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="AD59" s="1" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PARAGUAY: Primera Division - Clausura</t>
+          <t>LITHUANIA: I Lyga</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Babrungas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>BFA Vilnius</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="G60" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H60" s="1" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J60" s="1" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="L60" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M60" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N60" s="1" t="inlineStr">
@@ -8882,11 +8882,11 @@
         </is>
       </c>
       <c r="O60" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q60" s="1" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="S60" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="T60" s="1" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="V60" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W60" s="1" t="inlineStr">
@@ -8921,11 +8921,11 @@
         </is>
       </c>
       <c r="X60" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y60" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z60" s="1" t="inlineStr">
@@ -8940,39 +8940,39 @@
       </c>
       <c r="AB60" s="1" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="AC60" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AD60" s="1" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>POLAND: Ekstraklasa</t>
+          <t>LITHUANIA: I Lyga</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>BE1 NFA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>FK Panevezys 2</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="G61" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H61" s="1" t="inlineStr">
         <is>
@@ -9000,22 +9000,22 @@
       </c>
       <c r="J61" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K61" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L61" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L61" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="M61" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N61" s="1" t="inlineStr">
@@ -9024,11 +9024,11 @@
         </is>
       </c>
       <c r="O61" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Q61" s="1" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="S61" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T61" s="1" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="V61" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W61" s="1" t="inlineStr">
@@ -9062,14 +9062,12 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X61" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
+      <c r="X61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y61" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z61" s="1" t="inlineStr">
@@ -9084,39 +9082,39 @@
       </c>
       <c r="AB61" s="1" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="AC61" s="1" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="AD61" s="1" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>POLAND: Division 1</t>
+          <t>LITHUANIA: I Lyga</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Nevezis Kedainiai</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Kauno Zalgiris 2</t>
         </is>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
@@ -9130,7 +9128,7 @@
         </is>
       </c>
       <c r="G62" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
@@ -9139,12 +9137,12 @@
       </c>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J62" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K62" s="1" t="inlineStr">
@@ -9154,7 +9152,7 @@
       </c>
       <c r="L62" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M62" s="1" t="inlineStr">
@@ -9172,7 +9170,7 @@
       </c>
       <c r="P62" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q62" s="1" t="inlineStr">
@@ -9185,7 +9183,7 @@
       </c>
       <c r="S62" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="T62" s="1" t="inlineStr">
@@ -9194,11 +9192,11 @@
         </is>
       </c>
       <c r="U62" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V62" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W62" s="1" t="inlineStr">
@@ -9206,14 +9204,12 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X62" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
+      <c r="X62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y62" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z62" s="1" t="inlineStr">
@@ -9228,39 +9224,39 @@
       </c>
       <c r="AB62" s="1" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="AC62" s="1" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AD62" s="1" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.23</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>POLAND: Division 2</t>
+          <t>LITHUANIA: I Lyga</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Neptunas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Siauliai 2</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
@@ -9274,7 +9270,7 @@
         </is>
       </c>
       <c r="G63" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H63" s="1" t="inlineStr">
         <is>
@@ -9288,7 +9284,7 @@
       </c>
       <c r="J63" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K63" s="1" t="inlineStr">
@@ -9298,12 +9294,12 @@
       </c>
       <c r="L63" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M63" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="N63" s="1" t="inlineStr">
@@ -9316,7 +9312,7 @@
       </c>
       <c r="P63" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="Q63" s="1" t="inlineStr">
@@ -9325,11 +9321,11 @@
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S63" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="T63" s="1" t="inlineStr">
@@ -9338,11 +9334,11 @@
         </is>
       </c>
       <c r="U63" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V63" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W63" s="1" t="inlineStr">
@@ -9350,14 +9346,12 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X63" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
+      <c r="X63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y63" s="1" t="inlineStr">
         <is>
-          <t>	</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z63" s="1" t="inlineStr">
@@ -9372,39 +9366,39 @@
       </c>
       <c r="AB63" s="1" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="AC63" s="1" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="AD63" s="1" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.44</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ROMANIA: Liga 1</t>
+          <t>MYANMAR: National League</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Thitsar Arman</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Dagon Port</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
@@ -9418,7 +9412,7 @@
         </is>
       </c>
       <c r="G64" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
@@ -9427,12 +9421,12 @@
       </c>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J64" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K64" s="1" t="inlineStr">
@@ -9442,7 +9436,7 @@
       </c>
       <c r="L64" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M64" s="1" t="inlineStr">
@@ -9460,7 +9454,7 @@
       </c>
       <c r="P64" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q64" s="1" t="inlineStr">
@@ -9473,35 +9467,35 @@
       </c>
       <c r="S64" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T64" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W64" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T64" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U64" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V64" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W64" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Z64" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -9514,39 +9508,39 @@
       </c>
       <c r="AB64" s="1" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC64" s="1" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD64" s="1" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ROMANIA: Liga 1</t>
+          <t>MYANMAR: National League</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Myawady</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Mahar United</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
@@ -9560,7 +9554,7 @@
         </is>
       </c>
       <c r="G65" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H65" s="1" t="inlineStr">
         <is>
@@ -9569,12 +9563,12 @@
       </c>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J65" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K65" s="1" t="inlineStr">
@@ -9584,12 +9578,12 @@
       </c>
       <c r="L65" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M65" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N65" s="1" t="inlineStr">
@@ -9598,50 +9592,50 @@
         </is>
       </c>
       <c r="O65" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="1" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q65" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q65" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R65" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S65" s="1" t="inlineStr">
+      <c r="T65" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T65" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U65" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V65" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="W65" s="1" t="inlineStr">
         <is>
           <t>	</t>
         </is>
       </c>
       <c r="X65" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y65" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z65" s="1" t="inlineStr">
@@ -9656,34 +9650,34 @@
       </c>
       <c r="AB65" s="1" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AC65" s="1" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>	</t>
         </is>
       </c>
       <c r="AD65" s="1" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>	</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RUSSIA: Premier League</t>
+          <t>NORWAY: Division 3 - Group 5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rubin Kazan</t>
+          <t>Bjorkelangen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dynamo Makhachkala</t>
+          <t>Gjellerasen</t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
@@ -9702,7 +9696,7 @@
         </is>
       </c>
       <c r="G66" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H66" s="1" t="inlineStr">
         <is>
@@ -9716,7 +9710,7 @@
       </c>
       <c r="J66" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K66" s="1" t="inlineStr">
@@ -9726,7 +9720,7 @@
       </c>
       <c r="L66" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M66" s="1" t="inlineStr">
@@ -9744,48 +9738,48 @@
       </c>
       <c r="P66" s="1" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q66" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T66" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W66" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q66" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S66" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T66" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U66" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V66" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W66" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Z66" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -9798,39 +9792,39 @@
       </c>
       <c r="AB66" s="1" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="AC66" s="1" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AD66" s="1" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>6.26</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RUSSIA: FNL</t>
+          <t>PARAGUAY: Primera Division - Clausura</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SKA Khabarovsk</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Saratov</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
@@ -9858,7 +9852,7 @@
       </c>
       <c r="J67" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K67" s="1" t="inlineStr">
@@ -9868,12 +9862,12 @@
       </c>
       <c r="L67" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M67" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N67" s="1" t="inlineStr">
@@ -9882,7 +9876,7 @@
         </is>
       </c>
       <c r="O67" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" s="1" t="inlineStr">
         <is>
@@ -9899,35 +9893,35 @@
       </c>
       <c r="S67" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T67" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W67" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T67" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U67" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V67" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W67" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y67" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Z67" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -9940,39 +9934,39 @@
       </c>
       <c r="AB67" s="1" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AC67" s="1" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="AD67" s="1" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.34</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RUSSIA: FNL</t>
+          <t>POLAND: Ekstraklasa</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tyumen</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Arsenal Tula</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
@@ -9986,7 +9980,7 @@
         </is>
       </c>
       <c r="G68" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H68" s="1" t="inlineStr">
         <is>
@@ -10000,7 +9994,7 @@
       </c>
       <c r="J68" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -10024,11 +10018,11 @@
         </is>
       </c>
       <c r="O68" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q68" s="1" t="inlineStr">
@@ -10037,11 +10031,11 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S68" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T68" s="1" t="inlineStr">
@@ -10062,12 +10056,14 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X68" s="1" t="n">
-        <v>1</v>
+      <c r="X68" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
       </c>
       <c r="Y68" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>	</t>
         </is>
       </c>
       <c r="Z68" s="1" t="inlineStr">
@@ -10082,39 +10078,39 @@
       </c>
       <c r="AB68" s="1" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="AC68" s="1" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AD68" s="1" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SERBIA: Super Liga</t>
+          <t>POLAND: Division 2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
@@ -10137,7 +10133,7 @@
       </c>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J69" s="1" t="inlineStr">
@@ -10152,12 +10148,12 @@
       </c>
       <c r="L69" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="M69" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N69" s="1" t="inlineStr">
@@ -10166,11 +10162,11 @@
         </is>
       </c>
       <c r="O69" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P69" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q69" s="1" t="inlineStr">
@@ -10179,11 +10175,11 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T69" s="1" t="inlineStr">
@@ -10192,11 +10188,11 @@
         </is>
       </c>
       <c r="U69" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V69" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W69" s="1" t="inlineStr">
@@ -10204,12 +10200,14 @@
           <t>	</t>
         </is>
       </c>
-      <c r="X69" s="1" t="n">
-        <v>2</v>
+      <c r="X69" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
       </c>
       <c r="Y69" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>	</t>
         </is>
       </c>
       <c r="Z69" s="1" t="inlineStr">
@@ -10224,39 +10222,39 @@
       </c>
       <c r="AB69" s="1" t="inlineStr">
         <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="AC69" s="1" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AC69" s="1" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
       <c r="AD69" s="1" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SINGAPORE: Premier League</t>
+          <t>ROMANIA: Liga 1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
@@ -10270,7 +10268,7 @@
         </is>
       </c>
       <c r="G70" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1" t="inlineStr">
         <is>
@@ -10279,24 +10277,24 @@
       </c>
       <c r="I70" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J70" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J70" s="1" t="inlineStr">
+      <c r="K70" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L70" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K70" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L70" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="M70" s="1" t="inlineStr">
         <is>
           <t>W</t>
@@ -10308,11 +10306,11 @@
         </is>
       </c>
       <c r="O70" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q70" s="1" t="inlineStr">
@@ -10325,7 +10323,7 @@
       </c>
       <c r="S70" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T70" s="1" t="inlineStr">
@@ -10334,11 +10332,11 @@
         </is>
       </c>
       <c r="U70" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V70" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W70" s="1" t="inlineStr">
@@ -10347,11 +10345,11 @@
         </is>
       </c>
       <c r="X70" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z70" s="1" t="inlineStr">
@@ -10366,39 +10364,39 @@
       </c>
       <c r="AB70" s="1" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AC70" s="1" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AD70" s="1" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SWEDEN: Division 2 - Norra Svealand</t>
+          <t>ROMANIA: Liga 1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Enkopings SK</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Viggbyholms</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
@@ -10412,7 +10410,7 @@
         </is>
       </c>
       <c r="G71" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H71" s="1" t="inlineStr">
         <is>
@@ -10421,14 +10419,14 @@
       </c>
       <c r="I71" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J71" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -10436,12 +10434,12 @@
       </c>
       <c r="L71" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M71" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N71" s="1" t="inlineStr">
@@ -10454,7 +10452,7 @@
       </c>
       <c r="P71" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q71" s="1" t="inlineStr">
@@ -10463,11 +10461,11 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T71" s="1" t="inlineStr">
@@ -10480,7 +10478,7 @@
       </c>
       <c r="V71" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W71" s="1" t="inlineStr">
@@ -10493,7 +10491,7 @@
       </c>
       <c r="Y71" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z71" s="1" t="inlineStr">
@@ -10508,34 +10506,34 @@
       </c>
       <c r="AB71" s="1" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AC71" s="1" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="AD71" s="1" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.99</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SWEDEN: Division 2 - Västra Götaland</t>
+          <t>RUSSIA: Premier League</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Jonsereds</t>
+          <t>Rubin Kazan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Qviding</t>
+          <t>Dynamo Makhachkala</t>
         </is>
       </c>
       <c r="D72" s="1" t="inlineStr">
@@ -10554,7 +10552,7 @@
         </is>
       </c>
       <c r="G72" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H72" s="1" t="inlineStr">
         <is>
@@ -10563,14 +10561,14 @@
       </c>
       <c r="I72" s="1" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J72" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J72" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
           <t>	</t>
@@ -10583,7 +10581,7 @@
       </c>
       <c r="M72" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N72" s="1" t="inlineStr">
@@ -10592,11 +10590,11 @@
         </is>
       </c>
       <c r="O72" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q72" s="1" t="inlineStr">
@@ -10609,7 +10607,7 @@
       </c>
       <c r="S72" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T72" s="1" t="inlineStr">
@@ -10622,7 +10620,7 @@
       </c>
       <c r="V72" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W72" s="1" t="inlineStr">
@@ -10631,11 +10629,11 @@
         </is>
       </c>
       <c r="X72" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z72" s="1" t="inlineStr">
@@ -10650,159 +10648,1011 @@
       </c>
       <c r="AB72" s="1" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="AC72" s="1" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="AD72" s="1" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.60</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>RUSSIA: FNL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SKA Khabarovsk</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J73" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M73" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P73" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA73" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB73" s="1" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="AC73" s="1" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AD73" s="1" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RUSSIA: FNL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Tyumen</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Arsenal Tula</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I74" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J74" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="K74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L74" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M74" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA74" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB74" s="1" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="AC74" s="1" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="AD74" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SERBIA: Super Liga</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I75" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J75" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="K75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L75" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M75" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="N75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y75" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA75" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB75" s="1" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AC75" s="1" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="AD75" s="1" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SINGAPORE: Premier League</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Balestier Khalsa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I76" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J76" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L76" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M76" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="N76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="T76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Z76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA76" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB76" s="1" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="AC76" s="1" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="AD76" s="1" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SWEDEN: Division 2 - Norra Svealand</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Enkopings SK</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Viggbyholms</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I77" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J77" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L77" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M77" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="N77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Q77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Z77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA77" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB77" s="1" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="AC77" s="1" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="AD77" s="1" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SWEDEN: Division 2 - Västra Götaland</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Jonsereds</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Qviding</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I78" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J78" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="K78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L78" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M78" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="N78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA78" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB78" s="1" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="AC78" s="1" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="AD78" s="1" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>UZBEKISTAN: Super League</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Metallurg Bekabad</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Din. Samarkand</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="D79" s="1" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="E73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="F73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="n">
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="I73" s="1" t="inlineStr">
+      <c r="H79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="I79" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J73" s="1" t="inlineStr">
+      <c r="J79" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="L73" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M73" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="N73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="O73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P73" s="1" t="inlineStr">
+      <c r="K79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="L79" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M79" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="N79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S73" s="1" t="inlineStr">
+      <c r="Q79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="T73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="U73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V73" s="1" t="inlineStr">
+      <c r="T79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="X73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="1" t="inlineStr">
+      <c r="W79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="AA73" s="1" t="inlineStr">
-        <is>
-          <t>	</t>
-        </is>
-      </c>
-      <c r="AB73" s="1" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="AC73" s="1" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="AD73" s="1" t="inlineStr">
-        <is>
-          <t>3.59</t>
+      <c r="Z79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AA79" s="1" t="inlineStr">
+        <is>
+          <t>	</t>
+        </is>
+      </c>
+      <c r="AB79" s="1" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="AC79" s="1" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="AD79" s="1" t="inlineStr">
+        <is>
+          <t>3.64</t>
         </is>
       </c>
     </row>
